--- a/cache/general.xlsx
+++ b/cache/general.xlsx
@@ -397,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
